--- a/HW5/Jin_Zehui_5.xlsx
+++ b/HW5/Jin_Zehui_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kathy/Desktop/Columbia University/2019Spring/Business Analytics/HW5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7331727-DB05-CE48-B2A5-D3473D6BA5D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D94A1-55A1-E34B-8F62-C6DE0B28EC49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{37B9B761-382E-C140-A383-93B7B20E4D0A}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A96B66-33D8-344B-BF67-6ECC7F2ECBD8}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -509,13 +509,13 @@
         <v>1300</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D2">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -524,7 +524,7 @@
       </c>
       <c r="B4">
         <f>120*A2+200*B2+170*C2+400*D2</f>
-        <v>438000</v>
+        <v>441000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -536,13 +536,13 @@
       </c>
       <c r="C5">
         <f xml:space="preserve"> A2+B2</f>
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
-        <v>1400</v>
+      <c r="E5" s="2">
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -572,12 +572,12 @@
       </c>
       <c r="C7">
         <f>C2</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>700</v>
       </c>
     </row>
@@ -590,13 +590,13 @@
       </c>
       <c r="C8">
         <f>D2</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>400</v>
+      <c r="E8" s="1">
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -626,7 +626,7 @@
       </c>
       <c r="C10">
         <f>B2</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -674,6 +674,15 @@
       <c r="B20">
         <f>A20-A18</f>
         <v>17000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>441000</v>
+      </c>
+      <c r="B21">
+        <f>A21-A18</f>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
